--- a/jupyter/Data_Kebutuhan_Laptop.xlsx
+++ b/jupyter/Data_Kebutuhan_Laptop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="103">
   <si>
     <t>cpu</t>
   </si>
@@ -72,9 +72,6 @@
     <t>notebook</t>
   </si>
   <si>
-    <t>15-bs002nv (i3-6006U/4GB/128GB/FHD/W10)</t>
-  </si>
-  <si>
     <t>Lenovo</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>Vivobook E200HA</t>
   </si>
   <si>
-    <t>15-BS101nv (i7-8550U/8GB/256GB/FHD/W10)</t>
-  </si>
-  <si>
     <t>Intel Iris Plus Graphic</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>gaming</t>
   </si>
   <si>
-    <t>FX550IK-DM018T (FX-9830P/8GB/1TB/Radeon</t>
-  </si>
-  <si>
     <t>Inspiron 5570</t>
   </si>
   <si>
@@ -183,12 +174,6 @@
     <t>AMD E-Series</t>
   </si>
   <si>
-    <t>E402WA-GA010T (E2-6110/2GB/32GB/W10)</t>
-  </si>
-  <si>
-    <t>V310-15ISK (i5-7200U/4GB/1TB/FHD/W10)</t>
-  </si>
-  <si>
     <t>IPS Panel Full HD / Touchscreen</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
     <t>Aspire 3</t>
   </si>
   <si>
-    <t>X541UV-DM1439T (i3-7100U/6GB/256GB/GeForce</t>
-  </si>
-  <si>
     <t>Intel Iris Pro Graphics</t>
   </si>
   <si>
@@ -243,9 +225,6 @@
     <t>netbook</t>
   </si>
   <si>
-    <t>X541UA-DM1897 (i3-6006U/4GB/256GB/FHD/Linux)</t>
-  </si>
-  <si>
     <t>Omen 15-ce007nv</t>
   </si>
   <si>
@@ -325,6 +304,30 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>15-bs002nv</t>
+  </si>
+  <si>
+    <t>X541UA-DM1897</t>
+  </si>
+  <si>
+    <t>FX550IK-DM018T</t>
+  </si>
+  <si>
+    <t>V310-15ISK</t>
+  </si>
+  <si>
+    <t>X541UV-DM1439T</t>
+  </si>
+  <si>
+    <t>15-BS101nv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X541UA-DM1897 </t>
+  </si>
+  <si>
+    <t>E402WA-GA010T</t>
   </si>
 </sst>
 </file>
@@ -690,18 +693,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="M199" sqref="M199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -710,31 +713,31 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -816,7 +819,7 @@
         <v>7402418</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -839,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -857,7 +860,7 @@
         <v>10100338</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -868,19 +871,19 @@
         <v>17507898</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -898,12 +901,12 @@
         <v>16507898</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>10412451</v>
@@ -912,7 +915,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -921,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -939,7 +942,7 @@
         <v>8412451</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -950,7 +953,7 @@
         <v>19688238</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -962,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -980,7 +983,7 @@
         <v>17688238</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -991,7 +994,7 @@
         <v>5235817</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1000,16 +1003,16 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
       </c>
       <c r="J8">
         <v>0.98</v>
@@ -1021,7 +1024,7 @@
         <v>3235817</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1032,7 +1035,7 @@
         <v>13112058</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1062,7 +1065,7 @@
         <v>11112058</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1073,7 +1076,7 @@
         <v>18688238</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1085,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -1103,7 +1106,7 @@
         <v>17688238</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1117,22 +1120,22 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
         <v>36</v>
       </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
       </c>
       <c r="J11">
         <v>1.37</v>
@@ -1144,7 +1147,7 @@
         <v>22589852</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1158,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -1167,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -1185,30 +1188,30 @@
         <v>21886876</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>12786538</v>
       </c>
       <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1220,13 +1223,13 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L13">
         <v>11786538</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1237,19 +1240,19 @@
         <v>15489600</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>8</v>
       </c>
       <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
         <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -1267,7 +1270,7 @@
         <v>13489600</v>
       </c>
       <c r="M14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1287,16 +1290,16 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
       </c>
       <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
         <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
       </c>
       <c r="J15">
         <v>2.1</v>
@@ -1308,7 +1311,7 @@
         <v>6559318</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1319,7 +1322,7 @@
         <v>18688238</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1331,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1349,7 +1352,7 @@
         <v>17688238</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1378,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>1.86</v>
@@ -1390,7 +1393,7 @@
         <v>9695650</v>
       </c>
       <c r="M17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1401,25 +1404,25 @@
         <v>5355538</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
         <v>31</v>
       </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>32</v>
-      </c>
-      <c r="I18" t="s">
-        <v>33</v>
       </c>
       <c r="J18">
         <v>1.65</v>
@@ -1431,7 +1434,7 @@
         <v>3355538</v>
       </c>
       <c r="M18" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1442,19 +1445,19 @@
         <v>9412451</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -1472,7 +1475,7 @@
         <v>8412451</v>
       </c>
       <c r="M19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1492,10 +1495,10 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -1513,7 +1516,7 @@
         <v>9257238</v>
       </c>
       <c r="M20" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1527,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -1536,10 +1539,10 @@
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
         <v>8</v>
@@ -1554,7 +1557,7 @@
         <v>16507898</v>
       </c>
       <c r="M21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1568,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -1577,7 +1580,7 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -1595,7 +1598,7 @@
         <v>21886876</v>
       </c>
       <c r="M22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1606,10 +1609,10 @@
         <v>9412451</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -1618,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -1636,7 +1639,7 @@
         <v>8412451</v>
       </c>
       <c r="M23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1650,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -1682,16 +1685,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>34437346</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>16</v>
@@ -1700,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -1718,7 +1721,7 @@
         <v>33437346</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1729,19 +1732,19 @@
         <v>18507898</v>
       </c>
       <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
         <v>21</v>
       </c>
-      <c r="E26">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
       </c>
       <c r="H26" t="s">
         <v>7</v>
@@ -1759,7 +1762,7 @@
         <v>16507898</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1773,7 +1776,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -1800,7 +1803,7 @@
         <v>14821698</v>
       </c>
       <c r="M27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1814,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -1846,7 +1849,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>7744800</v>
@@ -1861,16 +1864,16 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
         <v>6</v>
       </c>
       <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
         <v>32</v>
-      </c>
-      <c r="I29" t="s">
-        <v>33</v>
       </c>
       <c r="J29">
         <v>2.1</v>
@@ -1882,7 +1885,7 @@
         <v>6744800</v>
       </c>
       <c r="M29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1896,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -1905,7 +1908,7 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -1923,30 +1926,30 @@
         <v>21886876</v>
       </c>
       <c r="M30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>13786538</v>
       </c>
       <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
         <v>44</v>
       </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>46</v>
-      </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -1958,13 +1961,13 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L31">
         <v>11786538</v>
       </c>
       <c r="M31" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1975,11 +1978,11 @@
         <v>15489600</v>
       </c>
       <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
         <v>20</v>
       </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
       <c r="E32">
         <v>8</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -2005,7 +2008,7 @@
         <v>13489600</v>
       </c>
       <c r="M32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2019,7 +2022,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -2028,7 +2031,7 @@
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -2046,7 +2049,7 @@
         <v>9729374</v>
       </c>
       <c r="M33" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2066,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -2087,12 +2090,12 @@
         <v>9695650</v>
       </c>
       <c r="M34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>10257238</v>
@@ -2107,10 +2110,10 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -2128,7 +2131,7 @@
         <v>9257238</v>
       </c>
       <c r="M35" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2139,10 +2142,10 @@
         <v>23589852</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E36">
         <v>16</v>
@@ -2151,13 +2154,13 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s">
         <v>37</v>
-      </c>
-      <c r="H36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" t="s">
-        <v>39</v>
       </c>
       <c r="J36">
         <v>1.37</v>
@@ -2169,7 +2172,7 @@
         <v>22589852</v>
       </c>
       <c r="M36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2192,13 +2195,13 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s">
         <v>32</v>
-      </c>
-      <c r="I37" t="s">
-        <v>33</v>
       </c>
       <c r="J37">
         <v>2.2000000000000002</v>
@@ -2210,7 +2213,7 @@
         <v>6222078</v>
       </c>
       <c r="M37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2230,16 +2233,16 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s">
         <v>31</v>
       </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" t="s">
-        <v>32</v>
-      </c>
       <c r="I38" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J38">
         <v>1.35</v>
@@ -2251,7 +2254,7 @@
         <v>18531338</v>
       </c>
       <c r="M38" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2262,10 +2265,10 @@
         <v>23589852</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E39">
         <v>16</v>
@@ -2274,13 +2277,13 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s">
         <v>37</v>
-      </c>
-      <c r="H39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" t="s">
-        <v>39</v>
       </c>
       <c r="J39">
         <v>1.37</v>
@@ -2292,7 +2295,7 @@
         <v>22589852</v>
       </c>
       <c r="M39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2315,13 +2318,13 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s">
         <v>37</v>
-      </c>
-      <c r="H40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" t="s">
-        <v>39</v>
       </c>
       <c r="J40">
         <v>1.37</v>
@@ -2333,7 +2336,7 @@
         <v>22589852</v>
       </c>
       <c r="M40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2344,10 +2347,10 @@
         <v>17507898</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <v>16</v>
@@ -2356,7 +2359,7 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
         <v>7</v>
@@ -2374,30 +2377,30 @@
         <v>16507898</v>
       </c>
       <c r="M41" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>26276138</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E42">
         <v>16</v>
       </c>
       <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
         <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
       </c>
       <c r="H42" t="s">
         <v>7</v>
@@ -2409,13 +2412,13 @@
         <v>2.65</v>
       </c>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L42">
         <v>25276138</v>
       </c>
       <c r="M42" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2426,7 +2429,7 @@
         <v>5861398</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -2441,10 +2444,10 @@
         <v>14</v>
       </c>
       <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s">
         <v>32</v>
-      </c>
-      <c r="I43" t="s">
-        <v>33</v>
       </c>
       <c r="J43">
         <v>1.44</v>
@@ -2456,7 +2459,7 @@
         <v>3861398</v>
       </c>
       <c r="M43" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2467,7 +2470,7 @@
         <v>4235817</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -2476,28 +2479,28 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
         <v>31</v>
       </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>32</v>
-      </c>
-      <c r="I44" t="s">
-        <v>33</v>
       </c>
       <c r="J44">
         <v>0.98</v>
       </c>
       <c r="K44" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L44">
         <v>3235817</v>
       </c>
       <c r="M44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2520,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
         <v>15</v>
@@ -2538,7 +2541,7 @@
         <v>6997730</v>
       </c>
       <c r="M45" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2561,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H46" t="s">
         <v>15</v>
@@ -2579,12 +2582,12 @@
         <v>6997730</v>
       </c>
       <c r="M46" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>10695650</v>
@@ -2599,7 +2602,7 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -2620,7 +2623,7 @@
         <v>9695650</v>
       </c>
       <c r="M47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2634,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E48">
         <v>8</v>
@@ -2684,13 +2687,13 @@
         <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s">
         <v>32</v>
-      </c>
-      <c r="I49" t="s">
-        <v>33</v>
       </c>
       <c r="J49">
         <v>2.2000000000000002</v>
@@ -2702,7 +2705,7 @@
         <v>6222078</v>
       </c>
       <c r="M49" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2716,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E50">
         <v>8</v>
@@ -2757,22 +2760,22 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" t="s">
         <v>36</v>
       </c>
-      <c r="E51">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>37</v>
-      </c>
-      <c r="H51" t="s">
-        <v>38</v>
-      </c>
-      <c r="I51" t="s">
-        <v>39</v>
       </c>
       <c r="J51">
         <v>1.37</v>
@@ -2784,7 +2787,7 @@
         <v>22589852</v>
       </c>
       <c r="M51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2804,10 +2807,10 @@
         <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
         <v>15</v>
@@ -2825,7 +2828,7 @@
         <v>8412451</v>
       </c>
       <c r="M52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2836,10 +2839,10 @@
         <v>18507898</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E53">
         <v>16</v>
@@ -2848,10 +2851,10 @@
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s">
         <v>8</v>
@@ -2866,7 +2869,7 @@
         <v>16507898</v>
       </c>
       <c r="M53" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2880,7 +2883,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E54">
         <v>8</v>
@@ -2918,7 +2921,7 @@
         <v>11112058</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -2948,27 +2951,27 @@
         <v>11112058</v>
       </c>
       <c r="M55" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B56">
         <v>23060638</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
@@ -2983,13 +2986,13 @@
         <v>2.62</v>
       </c>
       <c r="K56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L56">
         <v>21060638</v>
       </c>
       <c r="M56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3003,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -3012,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H57" t="s">
         <v>15</v>
@@ -3030,30 +3033,30 @@
         <v>9729374</v>
       </c>
       <c r="M57" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>27276138</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E58">
         <v>16</v>
       </c>
       <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
         <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
       </c>
       <c r="H58" t="s">
         <v>7</v>
@@ -3065,36 +3068,36 @@
         <v>2.65</v>
       </c>
       <c r="K58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L58">
         <v>25276138</v>
       </c>
       <c r="M58" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>42295038</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E59">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H59" t="s">
         <v>15</v>
@@ -3106,13 +3109,13 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="K59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L59">
         <v>41295038</v>
       </c>
       <c r="M59" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3132,10 +3135,10 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
         <v>15</v>
@@ -3153,7 +3156,7 @@
         <v>9257238</v>
       </c>
       <c r="M60" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3167,13 +3170,13 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
@@ -3194,7 +3197,7 @@
         <v>9695650</v>
       </c>
       <c r="M61" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3208,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E62">
         <v>8</v>
@@ -3217,7 +3220,7 @@
         <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H62" t="s">
         <v>15</v>
@@ -3235,7 +3238,7 @@
         <v>21886876</v>
       </c>
       <c r="M62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3246,10 +3249,10 @@
         <v>17507898</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E63">
         <v>8</v>
@@ -3258,10 +3261,10 @@
         <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H63" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I63" t="s">
         <v>8</v>
@@ -3276,7 +3279,7 @@
         <v>16507898</v>
       </c>
       <c r="M63" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3287,19 +3290,19 @@
         <v>10412451</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64">
         <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H64" t="s">
         <v>15</v>
@@ -3317,7 +3320,7 @@
         <v>8412451</v>
       </c>
       <c r="M64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3331,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E65">
         <v>8</v>
@@ -3343,7 +3346,7 @@
         <v>6</v>
       </c>
       <c r="H65" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I65" t="s">
         <v>8</v>
@@ -3352,13 +3355,13 @@
         <v>1.5</v>
       </c>
       <c r="K65" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L65">
         <v>14282114</v>
       </c>
       <c r="M65" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3369,10 +3372,10 @@
         <v>23589852</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E66">
         <v>16</v>
@@ -3381,13 +3384,13 @@
         <v>5</v>
       </c>
       <c r="G66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" t="s">
         <v>37</v>
-      </c>
-      <c r="H66" t="s">
-        <v>38</v>
-      </c>
-      <c r="I66" t="s">
-        <v>39</v>
       </c>
       <c r="J66">
         <v>1.37</v>
@@ -3399,7 +3402,7 @@
         <v>22589852</v>
       </c>
       <c r="M66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3410,10 +3413,10 @@
         <v>22886876</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E67">
         <v>8</v>
@@ -3422,7 +3425,7 @@
         <v>5</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H67" t="s">
         <v>15</v>
@@ -3440,7 +3443,7 @@
         <v>21886876</v>
       </c>
       <c r="M67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3451,25 +3454,25 @@
         <v>6350396</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E68">
         <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
         <v>14</v>
       </c>
       <c r="H68" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s">
         <v>32</v>
-      </c>
-      <c r="I68" t="s">
-        <v>33</v>
       </c>
       <c r="J68">
         <v>1.86</v>
@@ -3481,7 +3484,7 @@
         <v>4350396</v>
       </c>
       <c r="M68" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3492,10 +3495,10 @@
         <v>18507898</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E69">
         <v>16</v>
@@ -3504,10 +3507,10 @@
         <v>5</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I69" t="s">
         <v>8</v>
@@ -3522,30 +3525,30 @@
         <v>16507898</v>
       </c>
       <c r="M69" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B70">
         <v>27276138</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E70">
         <v>16</v>
       </c>
       <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
         <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
       </c>
       <c r="H70" t="s">
         <v>7</v>
@@ -3557,13 +3560,13 @@
         <v>2.65</v>
       </c>
       <c r="K70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L70">
         <v>25276138</v>
       </c>
       <c r="M70" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3586,7 +3589,7 @@
         <v>5</v>
       </c>
       <c r="G71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H71" t="s">
         <v>15</v>
@@ -3604,7 +3607,7 @@
         <v>6997730</v>
       </c>
       <c r="M71" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3615,7 +3618,7 @@
         <v>5861398</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
@@ -3630,10 +3633,10 @@
         <v>14</v>
       </c>
       <c r="H72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" t="s">
         <v>32</v>
-      </c>
-      <c r="I72" t="s">
-        <v>33</v>
       </c>
       <c r="J72">
         <v>1.44</v>
@@ -3645,7 +3648,7 @@
         <v>3861398</v>
       </c>
       <c r="M72" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3659,7 +3662,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E73">
         <v>8</v>
@@ -3668,7 +3671,7 @@
         <v>5</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H73" t="s">
         <v>15</v>
@@ -3686,12 +3689,12 @@
         <v>14821698</v>
       </c>
       <c r="M73" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B74">
         <v>27276138</v>
@@ -3700,7 +3703,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E74">
         <v>8</v>
@@ -3709,7 +3712,7 @@
         <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H74" t="s">
         <v>7</v>
@@ -3721,13 +3724,13 @@
         <v>2.65</v>
       </c>
       <c r="K74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L74">
         <v>25276138</v>
       </c>
       <c r="M74" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3741,7 +3744,7 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E75">
         <v>8</v>
@@ -3753,7 +3756,7 @@
         <v>6</v>
       </c>
       <c r="H75" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I75" t="s">
         <v>8</v>
@@ -3762,18 +3765,18 @@
         <v>1.5</v>
       </c>
       <c r="K75" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L75">
         <v>14282114</v>
       </c>
       <c r="M75" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B76">
         <v>26276138</v>
@@ -3782,7 +3785,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E76">
         <v>8</v>
@@ -3791,7 +3794,7 @@
         <v>5</v>
       </c>
       <c r="G76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H76" t="s">
         <v>7</v>
@@ -3803,13 +3806,13 @@
         <v>2.65</v>
       </c>
       <c r="K76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L76">
         <v>25276138</v>
       </c>
       <c r="M76" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3823,7 +3826,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -3832,7 +3835,7 @@
         <v>5</v>
       </c>
       <c r="G77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H77" t="s">
         <v>15</v>
@@ -3850,7 +3853,7 @@
         <v>8412451</v>
       </c>
       <c r="M77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3861,10 +3864,10 @@
         <v>17507898</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E78">
         <v>16</v>
@@ -3873,10 +3876,10 @@
         <v>5</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I78" t="s">
         <v>8</v>
@@ -3891,7 +3894,7 @@
         <v>16507898</v>
       </c>
       <c r="M78" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3905,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E79">
         <v>8</v>
@@ -3914,7 +3917,7 @@
         <v>5</v>
       </c>
       <c r="G79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H79" t="s">
         <v>15</v>
@@ -3932,12 +3935,12 @@
         <v>21886876</v>
       </c>
       <c r="M79" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B80">
         <v>17845138</v>
@@ -3946,16 +3949,16 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E80">
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
         <v>7</v>
@@ -3967,13 +3970,13 @@
         <v>2.5</v>
       </c>
       <c r="K80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L80">
         <v>16845138</v>
       </c>
       <c r="M80" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3993,16 +3996,16 @@
         <v>8</v>
       </c>
       <c r="F81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" t="s">
         <v>31</v>
       </c>
-      <c r="G81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H81" t="s">
-        <v>32</v>
-      </c>
       <c r="I81" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J81">
         <v>1.35</v>
@@ -4014,12 +4017,12 @@
         <v>18531338</v>
       </c>
       <c r="M81" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B82">
         <v>18845138</v>
@@ -4028,16 +4031,16 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E82">
         <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s">
         <v>7</v>
@@ -4049,13 +4052,13 @@
         <v>2.5</v>
       </c>
       <c r="K82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L82">
         <v>16845138</v>
       </c>
       <c r="M82" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4078,13 +4081,13 @@
         <v>5</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H83" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" t="s">
         <v>32</v>
-      </c>
-      <c r="I83" t="s">
-        <v>33</v>
       </c>
       <c r="J83">
         <v>2.2000000000000002</v>
@@ -4096,7 +4099,7 @@
         <v>6222078</v>
       </c>
       <c r="M83" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4137,7 +4140,7 @@
         <v>9695650</v>
       </c>
       <c r="M84" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4148,10 +4151,10 @@
         <v>18507898</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E85">
         <v>8</v>
@@ -4160,10 +4163,10 @@
         <v>5</v>
       </c>
       <c r="G85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H85" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I85" t="s">
         <v>8</v>
@@ -4178,7 +4181,7 @@
         <v>16507898</v>
       </c>
       <c r="M85" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4192,13 +4195,13 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E86">
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
         <v>14</v>
@@ -4219,30 +4222,30 @@
         <v>15108352</v>
       </c>
       <c r="M86" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B87">
         <v>42295038</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E87">
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G87" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H87" t="s">
         <v>15</v>
@@ -4254,13 +4257,13 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="K87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L87">
         <v>41295038</v>
       </c>
       <c r="M87" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4271,10 +4274,10 @@
         <v>14946643</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E88">
         <v>8</v>
@@ -4283,7 +4286,7 @@
         <v>5</v>
       </c>
       <c r="G88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H88" t="s">
         <v>15</v>
@@ -4301,7 +4304,7 @@
         <v>12946643</v>
       </c>
       <c r="M88" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4315,7 +4318,7 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E89">
         <v>8</v>
@@ -4324,7 +4327,7 @@
         <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H89" t="s">
         <v>15</v>
@@ -4342,7 +4345,7 @@
         <v>14821698</v>
       </c>
       <c r="M89" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4353,10 +4356,10 @@
         <v>13946643</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E90">
         <v>8</v>
@@ -4365,7 +4368,7 @@
         <v>5</v>
       </c>
       <c r="G90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
@@ -4383,30 +4386,30 @@
         <v>12946643</v>
       </c>
       <c r="M90" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B91">
         <v>21903738</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E91">
         <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H91" t="s">
         <v>15</v>
@@ -4418,18 +4421,18 @@
         <v>3.2</v>
       </c>
       <c r="K91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L91">
         <v>21903738</v>
       </c>
       <c r="M91" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B92">
         <v>11257238</v>
@@ -4444,10 +4447,10 @@
         <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
@@ -4465,7 +4468,7 @@
         <v>9257238</v>
       </c>
       <c r="M92" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4479,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E93">
         <v>8</v>
@@ -4488,13 +4491,13 @@
         <v>5</v>
       </c>
       <c r="G93" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" t="s">
+        <v>36</v>
+      </c>
+      <c r="I93" t="s">
         <v>37</v>
-      </c>
-      <c r="H93" t="s">
-        <v>38</v>
-      </c>
-      <c r="I93" t="s">
-        <v>39</v>
       </c>
       <c r="J93">
         <v>1.37</v>
@@ -4506,7 +4509,7 @@
         <v>22589852</v>
       </c>
       <c r="M93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4517,10 +4520,10 @@
         <v>10412451</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -4529,7 +4532,7 @@
         <v>5</v>
       </c>
       <c r="G94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H94" t="s">
         <v>15</v>
@@ -4547,7 +4550,7 @@
         <v>8412451</v>
       </c>
       <c r="M94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4558,10 +4561,10 @@
         <v>18507898</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E95">
         <v>8</v>
@@ -4570,10 +4573,10 @@
         <v>5</v>
       </c>
       <c r="G95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H95" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I95" t="s">
         <v>8</v>
@@ -4588,7 +4591,7 @@
         <v>16507898</v>
       </c>
       <c r="M95" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4599,10 +4602,10 @@
         <v>21183814</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E96">
         <v>16</v>
@@ -4629,7 +4632,7 @@
         <v>20183814</v>
       </c>
       <c r="M96" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4640,10 +4643,10 @@
         <v>18507898</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E97">
         <v>16</v>
@@ -4652,10 +4655,10 @@
         <v>5</v>
       </c>
       <c r="G97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I97" t="s">
         <v>8</v>
@@ -4670,7 +4673,7 @@
         <v>16507898</v>
       </c>
       <c r="M97" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4684,7 +4687,7 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E98">
         <v>8</v>
@@ -4696,7 +4699,7 @@
         <v>6</v>
       </c>
       <c r="H98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I98" t="s">
         <v>8</v>
@@ -4705,13 +4708,13 @@
         <v>1.5</v>
       </c>
       <c r="K98" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L98">
         <v>14282114</v>
       </c>
       <c r="M98" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4722,10 +4725,10 @@
         <v>18507898</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E99">
         <v>8</v>
@@ -4734,13 +4737,13 @@
         <v>5</v>
       </c>
       <c r="G99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H99" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>1.22</v>
@@ -4752,7 +4755,7 @@
         <v>16507898</v>
       </c>
       <c r="M99" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4766,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -4775,7 +4778,7 @@
         <v>5</v>
       </c>
       <c r="G100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H100" t="s">
         <v>15</v>
@@ -4793,7 +4796,7 @@
         <v>8412451</v>
       </c>
       <c r="M100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4813,10 +4816,10 @@
         <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
@@ -4834,7 +4837,7 @@
         <v>8412451</v>
       </c>
       <c r="M101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4845,19 +4848,19 @@
         <v>17507898</v>
       </c>
       <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" t="s">
         <v>20</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102">
+        <v>16</v>
+      </c>
+      <c r="F102" t="s">
         <v>21</v>
       </c>
-      <c r="E102">
-        <v>16</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>23</v>
       </c>
       <c r="H102" t="s">
         <v>7</v>
@@ -4875,18 +4878,18 @@
         <v>16507898</v>
       </c>
       <c r="M102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B103">
         <v>19688238</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -4898,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="G103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H103" t="s">
         <v>15</v>
@@ -4916,7 +4919,7 @@
         <v>17688238</v>
       </c>
       <c r="M103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4930,22 +4933,22 @@
         <v>3</v>
       </c>
       <c r="D104" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" t="s">
         <v>36</v>
       </c>
-      <c r="E104">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="I104" t="s">
         <v>37</v>
-      </c>
-      <c r="H104" t="s">
-        <v>38</v>
-      </c>
-      <c r="I104" t="s">
-        <v>39</v>
       </c>
       <c r="J104">
         <v>1.37</v>
@@ -4957,7 +4960,7 @@
         <v>22589852</v>
       </c>
       <c r="M104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4971,7 +4974,7 @@
         <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -4980,7 +4983,7 @@
         <v>5</v>
       </c>
       <c r="G105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H105" t="s">
         <v>15</v>
@@ -4998,30 +5001,30 @@
         <v>21886876</v>
       </c>
       <c r="M105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B106">
         <v>12786538</v>
       </c>
       <c r="C106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
         <v>44</v>
       </c>
-      <c r="D106" t="s">
-        <v>45</v>
-      </c>
-      <c r="E106">
-        <v>8</v>
-      </c>
-      <c r="F106" t="s">
-        <v>46</v>
-      </c>
       <c r="G106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H106" t="s">
         <v>15</v>
@@ -5033,36 +5036,36 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="K106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L106">
         <v>11786538</v>
       </c>
       <c r="M106" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B107">
         <v>14489600</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E107">
         <v>8</v>
       </c>
       <c r="F107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
         <v>22</v>
-      </c>
-      <c r="G107" t="s">
-        <v>23</v>
       </c>
       <c r="H107" t="s">
         <v>15</v>
@@ -5080,30 +5083,30 @@
         <v>13489600</v>
       </c>
       <c r="M107" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B108">
         <v>26276138</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E108">
         <v>16</v>
       </c>
       <c r="F108" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
         <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>23</v>
       </c>
       <c r="H108" t="s">
         <v>7</v>
@@ -5115,13 +5118,13 @@
         <v>2.65</v>
       </c>
       <c r="K108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L108">
         <v>25276138</v>
       </c>
       <c r="M108" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5132,7 +5135,7 @@
         <v>4861398</v>
       </c>
       <c r="C109" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5147,10 +5150,10 @@
         <v>14</v>
       </c>
       <c r="H109" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" t="s">
         <v>32</v>
-      </c>
-      <c r="I109" t="s">
-        <v>33</v>
       </c>
       <c r="J109">
         <v>1.44</v>
@@ -5162,7 +5165,7 @@
         <v>3861398</v>
       </c>
       <c r="M109" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5173,7 +5176,7 @@
         <v>5235817</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -5182,28 +5185,28 @@
         <v>2</v>
       </c>
       <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" t="s">
         <v>31</v>
       </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>32</v>
-      </c>
-      <c r="I110" t="s">
-        <v>33</v>
       </c>
       <c r="J110">
         <v>0.98</v>
       </c>
       <c r="K110" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L110">
         <v>3235817</v>
       </c>
       <c r="M110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5226,7 +5229,7 @@
         <v>5</v>
       </c>
       <c r="G111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H111" t="s">
         <v>15</v>
@@ -5244,7 +5247,7 @@
         <v>6997730</v>
       </c>
       <c r="M111" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5267,7 +5270,7 @@
         <v>5</v>
       </c>
       <c r="G112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H112" t="s">
         <v>15</v>
@@ -5285,12 +5288,12 @@
         <v>6997730</v>
       </c>
       <c r="M112" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B113">
         <v>10695650</v>
@@ -5305,7 +5308,7 @@
         <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
         <v>14</v>
@@ -5326,7 +5329,7 @@
         <v>9695650</v>
       </c>
       <c r="M113" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5340,7 +5343,7 @@
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E114">
         <v>8</v>
@@ -5390,13 +5393,13 @@
         <v>5</v>
       </c>
       <c r="G115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H115" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" t="s">
         <v>32</v>
-      </c>
-      <c r="I115" t="s">
-        <v>33</v>
       </c>
       <c r="J115">
         <v>2.2000000000000002</v>
@@ -5408,7 +5411,7 @@
         <v>6222078</v>
       </c>
       <c r="M115" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5422,7 +5425,7 @@
         <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E116">
         <v>8</v>
@@ -5463,22 +5466,22 @@
         <v>3</v>
       </c>
       <c r="D117" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" t="s">
         <v>36</v>
       </c>
-      <c r="E117">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="I117" t="s">
         <v>37</v>
-      </c>
-      <c r="H117" t="s">
-        <v>38</v>
-      </c>
-      <c r="I117" t="s">
-        <v>39</v>
       </c>
       <c r="J117">
         <v>1.37</v>
@@ -5490,7 +5493,7 @@
         <v>22589852</v>
       </c>
       <c r="M117" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5510,10 +5513,10 @@
         <v>4</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H118" t="s">
         <v>15</v>
@@ -5531,7 +5534,7 @@
         <v>8412451</v>
       </c>
       <c r="M118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5545,7 +5548,7 @@
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E119">
         <v>8</v>
@@ -5613,7 +5616,7 @@
         <v>7402418</v>
       </c>
       <c r="M120" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5636,7 +5639,7 @@
         <v>5</v>
       </c>
       <c r="G121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H121" t="s">
         <v>7</v>
@@ -5654,7 +5657,7 @@
         <v>10100338</v>
       </c>
       <c r="M121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5665,19 +5668,19 @@
         <v>18507898</v>
       </c>
       <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
         <v>20</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122">
+        <v>16</v>
+      </c>
+      <c r="F122" t="s">
         <v>21</v>
       </c>
-      <c r="E122">
-        <v>16</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>23</v>
       </c>
       <c r="H122" t="s">
         <v>7</v>
@@ -5695,7 +5698,7 @@
         <v>16507898</v>
       </c>
       <c r="M122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5709,7 +5712,7 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E123">
         <v>4</v>
@@ -5718,7 +5721,7 @@
         <v>5</v>
       </c>
       <c r="G123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H123" t="s">
         <v>15</v>
@@ -5736,7 +5739,7 @@
         <v>8412451</v>
       </c>
       <c r="M123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5747,7 +5750,7 @@
         <v>18688238</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
@@ -5759,7 +5762,7 @@
         <v>5</v>
       </c>
       <c r="G124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H124" t="s">
         <v>15</v>
@@ -5777,7 +5780,7 @@
         <v>17688238</v>
       </c>
       <c r="M124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5788,7 +5791,7 @@
         <v>4235817</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
@@ -5797,16 +5800,16 @@
         <v>2</v>
       </c>
       <c r="F125" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" t="s">
         <v>31</v>
       </c>
-      <c r="G125" t="s">
-        <v>28</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>32</v>
-      </c>
-      <c r="I125" t="s">
-        <v>33</v>
       </c>
       <c r="J125">
         <v>0.98</v>
@@ -5818,7 +5821,7 @@
         <v>3235817</v>
       </c>
       <c r="M125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5829,7 +5832,7 @@
         <v>12112058</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
@@ -5859,18 +5862,18 @@
         <v>11112058</v>
       </c>
       <c r="M126" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B127">
         <v>19688238</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
@@ -5882,7 +5885,7 @@
         <v>5</v>
       </c>
       <c r="G127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -5900,7 +5903,7 @@
         <v>17688238</v>
       </c>
       <c r="M127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5914,22 +5917,22 @@
         <v>3</v>
       </c>
       <c r="D128" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>35</v>
+      </c>
+      <c r="H128" t="s">
         <v>36</v>
       </c>
-      <c r="E128">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>5</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="I128" t="s">
         <v>37</v>
-      </c>
-      <c r="H128" t="s">
-        <v>38</v>
-      </c>
-      <c r="I128" t="s">
-        <v>39</v>
       </c>
       <c r="J128">
         <v>1.37</v>
@@ -5941,7 +5944,7 @@
         <v>22589852</v>
       </c>
       <c r="M128" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5955,7 +5958,7 @@
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E129">
         <v>8</v>
@@ -5964,7 +5967,7 @@
         <v>5</v>
       </c>
       <c r="G129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
@@ -5982,7 +5985,7 @@
         <v>21886876</v>
       </c>
       <c r="M129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -5996,7 +5999,7 @@
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E130">
         <v>8</v>
@@ -6008,7 +6011,7 @@
         <v>6</v>
       </c>
       <c r="H130" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I130" t="s">
         <v>8</v>
@@ -6017,18 +6020,18 @@
         <v>1.5</v>
       </c>
       <c r="K130" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L130">
         <v>14282114</v>
       </c>
       <c r="M130" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B131">
         <v>27276138</v>
@@ -6037,7 +6040,7 @@
         <v>3</v>
       </c>
       <c r="D131" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E131">
         <v>8</v>
@@ -6046,7 +6049,7 @@
         <v>5</v>
       </c>
       <c r="G131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H131" t="s">
         <v>7</v>
@@ -6058,13 +6061,13 @@
         <v>2.65</v>
       </c>
       <c r="K131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L131">
         <v>25276138</v>
       </c>
       <c r="M131" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6078,7 +6081,7 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E132">
         <v>4</v>
@@ -6087,7 +6090,7 @@
         <v>5</v>
       </c>
       <c r="G132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H132" t="s">
         <v>15</v>
@@ -6105,7 +6108,7 @@
         <v>8412451</v>
       </c>
       <c r="M132" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6116,10 +6119,10 @@
         <v>18507898</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E133">
         <v>16</v>
@@ -6128,10 +6131,10 @@
         <v>5</v>
       </c>
       <c r="G133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H133" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I133" t="s">
         <v>8</v>
@@ -6146,7 +6149,7 @@
         <v>16507898</v>
       </c>
       <c r="M133" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6160,7 +6163,7 @@
         <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E134">
         <v>8</v>
@@ -6169,7 +6172,7 @@
         <v>5</v>
       </c>
       <c r="G134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H134" t="s">
         <v>15</v>
@@ -6187,12 +6190,12 @@
         <v>21886876</v>
       </c>
       <c r="M134" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B135">
         <v>17845138</v>
@@ -6201,16 +6204,16 @@
         <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E135">
         <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H135" t="s">
         <v>7</v>
@@ -6222,13 +6225,13 @@
         <v>2.5</v>
       </c>
       <c r="K135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L135">
         <v>16845138</v>
       </c>
       <c r="M135" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -6248,16 +6251,16 @@
         <v>8</v>
       </c>
       <c r="F136" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" t="s">
+        <v>35</v>
+      </c>
+      <c r="H136" t="s">
         <v>31</v>
       </c>
-      <c r="G136" t="s">
-        <v>37</v>
-      </c>
-      <c r="H136" t="s">
-        <v>32</v>
-      </c>
       <c r="I136" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J136">
         <v>1.35</v>
@@ -6269,12 +6272,12 @@
         <v>18531338</v>
       </c>
       <c r="M136" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B137">
         <v>18845138</v>
@@ -6283,16 +6286,16 @@
         <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E137">
         <v>8</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H137" t="s">
         <v>7</v>
@@ -6304,13 +6307,13 @@
         <v>2.5</v>
       </c>
       <c r="K137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L137">
         <v>16845138</v>
       </c>
       <c r="M137" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6333,13 +6336,13 @@
         <v>5</v>
       </c>
       <c r="G138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" t="s">
         <v>32</v>
-      </c>
-      <c r="I138" t="s">
-        <v>33</v>
       </c>
       <c r="J138">
         <v>2.2000000000000002</v>
@@ -6351,7 +6354,7 @@
         <v>6222078</v>
       </c>
       <c r="M138" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6392,7 +6395,7 @@
         <v>9695650</v>
       </c>
       <c r="M139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6403,10 +6406,10 @@
         <v>18507898</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E140">
         <v>8</v>
@@ -6415,10 +6418,10 @@
         <v>5</v>
       </c>
       <c r="G140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H140" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I140" t="s">
         <v>8</v>
@@ -6433,7 +6436,7 @@
         <v>16507898</v>
       </c>
       <c r="M140" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6447,13 +6450,13 @@
         <v>3</v>
       </c>
       <c r="D141" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E141">
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G141" t="s">
         <v>14</v>
@@ -6474,30 +6477,30 @@
         <v>15108352</v>
       </c>
       <c r="M141" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B142">
         <v>43295038</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D142" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E142">
         <v>16</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G142" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H142" t="s">
         <v>15</v>
@@ -6509,13 +6512,13 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="K142" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L142">
         <v>41295038</v>
       </c>
       <c r="M142" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6526,10 +6529,10 @@
         <v>13946643</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E143">
         <v>8</v>
@@ -6538,7 +6541,7 @@
         <v>5</v>
       </c>
       <c r="G143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H143" t="s">
         <v>15</v>
@@ -6556,7 +6559,7 @@
         <v>12946643</v>
       </c>
       <c r="M143" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6570,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E144">
         <v>8</v>
@@ -6579,7 +6582,7 @@
         <v>5</v>
       </c>
       <c r="G144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H144" t="s">
         <v>15</v>
@@ -6597,7 +6600,7 @@
         <v>14821698</v>
       </c>
       <c r="M144" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6608,10 +6611,10 @@
         <v>13946643</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E145">
         <v>8</v>
@@ -6620,7 +6623,7 @@
         <v>5</v>
       </c>
       <c r="G145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H145" t="s">
         <v>15</v>
@@ -6638,7 +6641,7 @@
         <v>12946643</v>
       </c>
       <c r="M145" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6649,19 +6652,19 @@
         <v>21903738</v>
       </c>
       <c r="C146" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E146">
         <v>8</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H146" t="s">
         <v>15</v>
@@ -6673,18 +6676,18 @@
         <v>3.2</v>
       </c>
       <c r="K146" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L146">
         <v>21903738</v>
       </c>
       <c r="M146" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B147">
         <v>11257238</v>
@@ -6699,10 +6702,10 @@
         <v>4</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H147" t="s">
         <v>15</v>
@@ -6720,7 +6723,7 @@
         <v>9257238</v>
       </c>
       <c r="M147" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6731,19 +6734,19 @@
         <v>12786538</v>
       </c>
       <c r="C148" t="s">
+        <v>42</v>
+      </c>
+      <c r="D148" t="s">
+        <v>43</v>
+      </c>
+      <c r="E148">
+        <v>8</v>
+      </c>
+      <c r="F148" t="s">
         <v>44</v>
       </c>
-      <c r="D148" t="s">
-        <v>45</v>
-      </c>
-      <c r="E148">
-        <v>8</v>
-      </c>
-      <c r="F148" t="s">
-        <v>46</v>
-      </c>
       <c r="G148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H148" t="s">
         <v>15</v>
@@ -6755,13 +6758,13 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="K148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L148">
         <v>11786538</v>
       </c>
       <c r="M148" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6772,19 +6775,19 @@
         <v>14489600</v>
       </c>
       <c r="C149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D149" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E149">
         <v>8</v>
       </c>
       <c r="F149" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
         <v>22</v>
-      </c>
-      <c r="G149" t="s">
-        <v>23</v>
       </c>
       <c r="H149" t="s">
         <v>15</v>
@@ -6802,7 +6805,7 @@
         <v>13489600</v>
       </c>
       <c r="M149" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6822,16 +6825,16 @@
         <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
         <v>6</v>
       </c>
       <c r="H150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" t="s">
         <v>32</v>
-      </c>
-      <c r="I150" t="s">
-        <v>33</v>
       </c>
       <c r="J150">
         <v>2.1</v>
@@ -6843,7 +6846,7 @@
         <v>6559318</v>
       </c>
       <c r="M150" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6854,7 +6857,7 @@
         <v>19688238</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D151" t="s">
         <v>13</v>
@@ -6866,7 +6869,7 @@
         <v>5</v>
       </c>
       <c r="G151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H151" t="s">
         <v>15</v>
@@ -6884,7 +6887,7 @@
         <v>17688238</v>
       </c>
       <c r="M151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6925,7 +6928,7 @@
         <v>9695650</v>
       </c>
       <c r="M152" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6936,25 +6939,25 @@
         <v>4355538</v>
       </c>
       <c r="C153" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E153">
         <v>2</v>
       </c>
       <c r="F153" t="s">
+        <v>30</v>
+      </c>
+      <c r="G153" t="s">
+        <v>27</v>
+      </c>
+      <c r="H153" t="s">
         <v>31</v>
       </c>
-      <c r="G153" t="s">
-        <v>28</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>32</v>
-      </c>
-      <c r="I153" t="s">
-        <v>33</v>
       </c>
       <c r="J153">
         <v>1.65</v>
@@ -6966,7 +6969,7 @@
         <v>3355538</v>
       </c>
       <c r="M153" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6977,19 +6980,19 @@
         <v>9412451</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D154" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E154">
         <v>8</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H154" t="s">
         <v>15</v>
@@ -7007,7 +7010,7 @@
         <v>8412451</v>
       </c>
       <c r="M154" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7027,10 +7030,10 @@
         <v>4</v>
       </c>
       <c r="F155" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H155" t="s">
         <v>15</v>
@@ -7048,12 +7051,12 @@
         <v>9257238</v>
       </c>
       <c r="M155" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B156">
         <v>18507898</v>
@@ -7062,7 +7065,7 @@
         <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E156">
         <v>8</v>
@@ -7071,10 +7074,10 @@
         <v>5</v>
       </c>
       <c r="G156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H156" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I156" t="s">
         <v>8</v>
@@ -7089,7 +7092,7 @@
         <v>16507898</v>
       </c>
       <c r="M156" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7103,7 +7106,7 @@
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -7112,7 +7115,7 @@
         <v>5</v>
       </c>
       <c r="G157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H157" t="s">
         <v>15</v>
@@ -7130,7 +7133,7 @@
         <v>21886876</v>
       </c>
       <c r="M157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7141,10 +7144,10 @@
         <v>10412451</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E158">
         <v>8</v>
@@ -7153,7 +7156,7 @@
         <v>5</v>
       </c>
       <c r="G158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H158" t="s">
         <v>15</v>
@@ -7171,7 +7174,7 @@
         <v>8412451</v>
       </c>
       <c r="M158" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7182,10 +7185,10 @@
         <v>22886876</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E159">
         <v>8</v>
@@ -7194,7 +7197,7 @@
         <v>5</v>
       </c>
       <c r="G159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H159" t="s">
         <v>15</v>
@@ -7212,7 +7215,7 @@
         <v>21886876</v>
       </c>
       <c r="M159" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7223,25 +7226,25 @@
         <v>5350396</v>
       </c>
       <c r="C160" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D160" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E160">
         <v>4</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
         <v>14</v>
       </c>
       <c r="H160" t="s">
+        <v>31</v>
+      </c>
+      <c r="I160" t="s">
         <v>32</v>
-      </c>
-      <c r="I160" t="s">
-        <v>33</v>
       </c>
       <c r="J160">
         <v>1.86</v>
@@ -7253,7 +7256,7 @@
         <v>4350396</v>
       </c>
       <c r="M160" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -7264,10 +7267,10 @@
         <v>18507898</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D161" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E161">
         <v>16</v>
@@ -7276,10 +7279,10 @@
         <v>5</v>
       </c>
       <c r="G161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H161" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I161" t="s">
         <v>8</v>
@@ -7294,7 +7297,7 @@
         <v>16507898</v>
       </c>
       <c r="M161" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7305,19 +7308,19 @@
         <v>27276138</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E162">
         <v>16</v>
       </c>
       <c r="F162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
         <v>22</v>
-      </c>
-      <c r="G162" t="s">
-        <v>23</v>
       </c>
       <c r="H162" t="s">
         <v>7</v>
@@ -7329,13 +7332,13 @@
         <v>2.65</v>
       </c>
       <c r="K162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L162">
         <v>25276138</v>
       </c>
       <c r="M162" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7358,7 +7361,7 @@
         <v>5</v>
       </c>
       <c r="G163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H163" t="s">
         <v>15</v>
@@ -7376,7 +7379,7 @@
         <v>6997730</v>
       </c>
       <c r="M163" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7387,7 +7390,7 @@
         <v>4861398</v>
       </c>
       <c r="C164" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D164" t="s">
         <v>13</v>
@@ -7402,10 +7405,10 @@
         <v>14</v>
       </c>
       <c r="H164" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164" t="s">
         <v>32</v>
-      </c>
-      <c r="I164" t="s">
-        <v>33</v>
       </c>
       <c r="J164">
         <v>1.44</v>
@@ -7417,7 +7420,7 @@
         <v>3861398</v>
       </c>
       <c r="M164" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7431,7 +7434,7 @@
         <v>3</v>
       </c>
       <c r="D165" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E165">
         <v>8</v>
@@ -7440,7 +7443,7 @@
         <v>5</v>
       </c>
       <c r="G165" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H165" t="s">
         <v>15</v>
@@ -7458,7 +7461,7 @@
         <v>14821698</v>
       </c>
       <c r="M165" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7472,7 +7475,7 @@
         <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E166">
         <v>8</v>
@@ -7481,7 +7484,7 @@
         <v>5</v>
       </c>
       <c r="G166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H166" t="s">
         <v>7</v>
@@ -7493,13 +7496,13 @@
         <v>2.65</v>
       </c>
       <c r="K166" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L166">
         <v>25276138</v>
       </c>
       <c r="M166" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7513,7 +7516,7 @@
         <v>3</v>
       </c>
       <c r="D167" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E167">
         <v>8</v>
@@ -7525,7 +7528,7 @@
         <v>6</v>
       </c>
       <c r="H167" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I167" t="s">
         <v>8</v>
@@ -7534,13 +7537,13 @@
         <v>1.5</v>
       </c>
       <c r="K167" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L167">
         <v>14282114</v>
       </c>
       <c r="M167" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7554,7 +7557,7 @@
         <v>3</v>
       </c>
       <c r="D168" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E168">
         <v>8</v>
@@ -7563,7 +7566,7 @@
         <v>5</v>
       </c>
       <c r="G168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H168" t="s">
         <v>7</v>
@@ -7575,13 +7578,13 @@
         <v>2.65</v>
       </c>
       <c r="K168" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L168">
         <v>25276138</v>
       </c>
       <c r="M168" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7595,7 +7598,7 @@
         <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E169">
         <v>4</v>
@@ -7604,7 +7607,7 @@
         <v>5</v>
       </c>
       <c r="G169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H169" t="s">
         <v>15</v>
@@ -7622,7 +7625,7 @@
         <v>8412451</v>
       </c>
       <c r="M169" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7633,10 +7636,10 @@
         <v>17507898</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D170" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E170">
         <v>16</v>
@@ -7645,10 +7648,10 @@
         <v>5</v>
       </c>
       <c r="G170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H170" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I170" t="s">
         <v>8</v>
@@ -7663,7 +7666,7 @@
         <v>16507898</v>
       </c>
       <c r="M170" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7677,7 +7680,7 @@
         <v>3</v>
       </c>
       <c r="D171" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E171">
         <v>8</v>
@@ -7686,7 +7689,7 @@
         <v>5</v>
       </c>
       <c r="G171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H171" t="s">
         <v>15</v>
@@ -7704,7 +7707,7 @@
         <v>21886876</v>
       </c>
       <c r="M171" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7718,16 +7721,16 @@
         <v>3</v>
       </c>
       <c r="D172" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E172">
         <v>8</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H172" t="s">
         <v>7</v>
@@ -7739,13 +7742,13 @@
         <v>2.5</v>
       </c>
       <c r="K172" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L172">
         <v>16845138</v>
       </c>
       <c r="M172" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7765,16 +7768,16 @@
         <v>8</v>
       </c>
       <c r="F173" t="s">
+        <v>30</v>
+      </c>
+      <c r="G173" t="s">
+        <v>35</v>
+      </c>
+      <c r="H173" t="s">
         <v>31</v>
       </c>
-      <c r="G173" t="s">
-        <v>37</v>
-      </c>
-      <c r="H173" t="s">
-        <v>32</v>
-      </c>
       <c r="I173" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J173">
         <v>1.35</v>
@@ -7786,7 +7789,7 @@
         <v>18531338</v>
       </c>
       <c r="M173" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7800,16 +7803,16 @@
         <v>3</v>
       </c>
       <c r="D174" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E174">
         <v>8</v>
       </c>
       <c r="F174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H174" t="s">
         <v>7</v>
@@ -7821,18 +7824,18 @@
         <v>2.5</v>
       </c>
       <c r="K174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L174">
         <v>16845138</v>
       </c>
       <c r="M174" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B175">
         <v>11257238</v>
@@ -7847,10 +7850,10 @@
         <v>4</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H175" t="s">
         <v>15</v>
@@ -7868,7 +7871,7 @@
         <v>9257238</v>
       </c>
       <c r="M175" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7882,22 +7885,22 @@
         <v>3</v>
       </c>
       <c r="D176" t="s">
+        <v>34</v>
+      </c>
+      <c r="E176">
+        <v>8</v>
+      </c>
+      <c r="F176" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" t="s">
+        <v>35</v>
+      </c>
+      <c r="H176" t="s">
         <v>36</v>
       </c>
-      <c r="E176">
-        <v>8</v>
-      </c>
-      <c r="F176" t="s">
-        <v>5</v>
-      </c>
-      <c r="G176" t="s">
+      <c r="I176" t="s">
         <v>37</v>
-      </c>
-      <c r="H176" t="s">
-        <v>38</v>
-      </c>
-      <c r="I176" t="s">
-        <v>39</v>
       </c>
       <c r="J176">
         <v>1.37</v>
@@ -7909,21 +7912,21 @@
         <v>22589852</v>
       </c>
       <c r="M176" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B177">
         <v>9412451</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -7932,7 +7935,7 @@
         <v>5</v>
       </c>
       <c r="G177" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H177" t="s">
         <v>15</v>
@@ -7950,21 +7953,21 @@
         <v>8412451</v>
       </c>
       <c r="M177" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B178">
         <v>17507898</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D178" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E178">
         <v>8</v>
@@ -7973,10 +7976,10 @@
         <v>5</v>
       </c>
       <c r="G178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H178" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I178" t="s">
         <v>8</v>
@@ -7991,7 +7994,7 @@
         <v>16507898</v>
       </c>
       <c r="M178" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8002,10 +8005,10 @@
         <v>21183814</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D179" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E179">
         <v>16</v>
@@ -8032,7 +8035,7 @@
         <v>20183814</v>
       </c>
       <c r="M179" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8043,10 +8046,10 @@
         <v>17507898</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D180" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E180">
         <v>16</v>
@@ -8055,10 +8058,10 @@
         <v>5</v>
       </c>
       <c r="G180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H180" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I180" t="s">
         <v>8</v>
@@ -8073,7 +8076,7 @@
         <v>16507898</v>
       </c>
       <c r="M180" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8087,7 +8090,7 @@
         <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E181">
         <v>8</v>
@@ -8099,7 +8102,7 @@
         <v>6</v>
       </c>
       <c r="H181" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I181" t="s">
         <v>8</v>
@@ -8108,13 +8111,13 @@
         <v>1.5</v>
       </c>
       <c r="K181" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L181">
         <v>14282114</v>
       </c>
       <c r="M181" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8125,10 +8128,10 @@
         <v>17507898</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D182" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E182">
         <v>8</v>
@@ -8137,10 +8140,10 @@
         <v>5</v>
       </c>
       <c r="G182" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H182" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I182" t="s">
         <v>8</v>
@@ -8155,7 +8158,7 @@
         <v>16507898</v>
       </c>
       <c r="M182" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8169,7 +8172,7 @@
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E183">
         <v>4</v>
@@ -8178,7 +8181,7 @@
         <v>5</v>
       </c>
       <c r="G183" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H183" t="s">
         <v>15</v>
@@ -8196,7 +8199,7 @@
         <v>8412451</v>
       </c>
       <c r="M183" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8216,10 +8219,10 @@
         <v>4</v>
       </c>
       <c r="F184" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H184" t="s">
         <v>15</v>
@@ -8237,7 +8240,7 @@
         <v>8412451</v>
       </c>
       <c r="M184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8248,19 +8251,19 @@
         <v>17507898</v>
       </c>
       <c r="C185" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" t="s">
         <v>20</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185">
+        <v>16</v>
+      </c>
+      <c r="F185" t="s">
         <v>21</v>
       </c>
-      <c r="E185">
-        <v>16</v>
-      </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>22</v>
-      </c>
-      <c r="G185" t="s">
-        <v>23</v>
       </c>
       <c r="H185" t="s">
         <v>7</v>
@@ -8278,18 +8281,18 @@
         <v>16507898</v>
       </c>
       <c r="M185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B186">
         <v>19688238</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D186" t="s">
         <v>13</v>
@@ -8301,7 +8304,7 @@
         <v>5</v>
       </c>
       <c r="G186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H186" t="s">
         <v>15</v>
@@ -8319,7 +8322,7 @@
         <v>17688238</v>
       </c>
       <c r="M186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -8333,22 +8336,22 @@
         <v>3</v>
       </c>
       <c r="D187" t="s">
+        <v>34</v>
+      </c>
+      <c r="E187">
+        <v>8</v>
+      </c>
+      <c r="F187" t="s">
+        <v>5</v>
+      </c>
+      <c r="G187" t="s">
+        <v>35</v>
+      </c>
+      <c r="H187" t="s">
         <v>36</v>
       </c>
-      <c r="E187">
-        <v>8</v>
-      </c>
-      <c r="F187" t="s">
-        <v>5</v>
-      </c>
-      <c r="G187" t="s">
+      <c r="I187" t="s">
         <v>37</v>
-      </c>
-      <c r="H187" t="s">
-        <v>38</v>
-      </c>
-      <c r="I187" t="s">
-        <v>39</v>
       </c>
       <c r="J187">
         <v>1.37</v>
@@ -8360,7 +8363,7 @@
         <v>22589852</v>
       </c>
       <c r="M187" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -8374,7 +8377,7 @@
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E188">
         <v>8</v>
@@ -8383,7 +8386,7 @@
         <v>5</v>
       </c>
       <c r="G188" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H188" t="s">
         <v>15</v>
@@ -8401,7 +8404,7 @@
         <v>21886876</v>
       </c>
       <c r="M188" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8412,19 +8415,19 @@
         <v>13786538</v>
       </c>
       <c r="C189" t="s">
+        <v>42</v>
+      </c>
+      <c r="D189" t="s">
+        <v>43</v>
+      </c>
+      <c r="E189">
+        <v>8</v>
+      </c>
+      <c r="F189" t="s">
         <v>44</v>
       </c>
-      <c r="D189" t="s">
-        <v>45</v>
-      </c>
-      <c r="E189">
-        <v>8</v>
-      </c>
-      <c r="F189" t="s">
-        <v>46</v>
-      </c>
       <c r="G189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H189" t="s">
         <v>15</v>
@@ -8436,36 +8439,36 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="K189" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L189">
         <v>11786538</v>
       </c>
       <c r="M189" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B190">
         <v>14489600</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D190" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E190">
         <v>8</v>
       </c>
       <c r="F190" t="s">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
         <v>22</v>
-      </c>
-      <c r="G190" t="s">
-        <v>23</v>
       </c>
       <c r="H190" t="s">
         <v>15</v>
@@ -8483,7 +8486,7 @@
         <v>13489600</v>
       </c>
       <c r="M190" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8494,19 +8497,19 @@
         <v>18507898</v>
       </c>
       <c r="C191" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" t="s">
         <v>20</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191">
+        <v>16</v>
+      </c>
+      <c r="F191" t="s">
         <v>21</v>
       </c>
-      <c r="E191">
-        <v>16</v>
-      </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>22</v>
-      </c>
-      <c r="G191" t="s">
-        <v>23</v>
       </c>
       <c r="H191" t="s">
         <v>7</v>
@@ -8524,7 +8527,7 @@
         <v>16507898</v>
       </c>
       <c r="M191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8535,10 +8538,10 @@
         <v>17507898</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D192" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E192">
         <v>8</v>
@@ -8547,10 +8550,10 @@
         <v>5</v>
       </c>
       <c r="G192" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H192" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I192" t="s">
         <v>8</v>
@@ -8565,7 +8568,7 @@
         <v>16507898</v>
       </c>
       <c r="M192" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8576,7 +8579,7 @@
         <v>5861398</v>
       </c>
       <c r="C193" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D193" t="s">
         <v>13</v>
@@ -8591,10 +8594,10 @@
         <v>14</v>
       </c>
       <c r="H193" t="s">
+        <v>31</v>
+      </c>
+      <c r="I193" t="s">
         <v>32</v>
-      </c>
-      <c r="I193" t="s">
-        <v>33</v>
       </c>
       <c r="J193">
         <v>1.44</v>
@@ -8606,21 +8609,21 @@
         <v>3861398</v>
       </c>
       <c r="M193" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B194">
         <v>10412451</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E194">
         <v>8</v>
@@ -8629,7 +8632,7 @@
         <v>5</v>
       </c>
       <c r="G194" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H194" t="s">
         <v>15</v>
@@ -8647,12 +8650,12 @@
         <v>8412451</v>
       </c>
       <c r="M194" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B195">
         <v>14983740</v>
@@ -8661,7 +8664,7 @@
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E195">
         <v>8</v>
@@ -8702,7 +8705,7 @@
         <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E196">
         <v>6</v>
@@ -8711,7 +8714,7 @@
         <v>5</v>
       </c>
       <c r="G196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H196" t="s">
         <v>15</v>
@@ -8729,7 +8732,7 @@
         <v>9729374</v>
       </c>
       <c r="M196" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8752,7 +8755,7 @@
         <v>5</v>
       </c>
       <c r="G197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H197" t="s">
         <v>7</v>
@@ -8770,30 +8773,30 @@
         <v>10100338</v>
       </c>
       <c r="M197" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B198">
         <v>43295038</v>
       </c>
       <c r="C198" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D198" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E198">
         <v>16</v>
       </c>
       <c r="F198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G198" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H198" t="s">
         <v>15</v>
@@ -8805,13 +8808,13 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="K198" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L198">
         <v>41295038</v>
       </c>
       <c r="M198" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8834,7 +8837,7 @@
         <v>5</v>
       </c>
       <c r="G199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H199" t="s">
         <v>15</v>
@@ -8852,21 +8855,21 @@
         <v>6997730</v>
       </c>
       <c r="M199" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B200">
         <v>10412451</v>
       </c>
       <c r="C200" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D200" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E200">
         <v>8</v>
@@ -8875,7 +8878,7 @@
         <v>5</v>
       </c>
       <c r="G200" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H200" t="s">
         <v>15</v>
@@ -8893,7 +8896,7 @@
         <v>8412451</v>
       </c>
       <c r="M200" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter/Data_Kebutuhan_Laptop.xlsx
+++ b/jupyter/Data_Kebutuhan_Laptop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Github Repo\SKP_TA_UMB\jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7575890E-6874-4609-9A24-DAA769943FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD3D46-4649-4CC9-9C74-185F26EE137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,10 +671,13 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
